--- a/predictions/predictions - MarkB.xlsx
+++ b/predictions/predictions - MarkB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Footy\Euro 2020\predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB80468-AEA7-4F75-907E-573C7BD5B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6228405-12A0-4BBB-9D97-0C1D9C5167FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups A,B,C,D" sheetId="14" r:id="rId1"/>
@@ -2728,19 +2728,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2748,8 +2736,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2760,15 +2756,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -11909,8 +11909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:BG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BF41" sqref="BF41"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14521,11 +14521,11 @@
       </c>
       <c r="AF26" s="131">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG26" s="131">
         <f>IF(Y26&lt;1,-100,AO26+AW26)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AH26" s="131">
         <f>AP26+AX26</f>
@@ -14585,11 +14585,11 @@
       </c>
       <c r="AV26" s="131">
         <f>SUMIF(I$25:I$30,X26,F$25:F$30)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" s="131">
         <f>AU26-AV26</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AX26" s="131">
         <f>AR26*3+AS26*1</f>
@@ -14628,7 +14628,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="135">
         <v>0</v>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="Q27" s="92">
         <f>IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$29,8,FALSE),"")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27" s="92">
         <f>IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$29,9,FALSE),"")</f>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="S27" s="92">
         <f>IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$29,10,FALSE),"")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T27" s="93">
         <f>IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$29,11,FALSE),"")</f>
@@ -14712,7 +14712,7 @@
       </c>
       <c r="AE27" s="131">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF27" s="131">
         <f t="shared" si="2"/>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="AG27" s="131">
         <f>IF(Y27&lt;1,-100,AO27+AW27)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH27" s="131">
         <f>AP27+AX27</f>
@@ -14744,7 +14744,7 @@
       </c>
       <c r="AM27" s="131">
         <f>SUMIF(D$25:D$30,X27,F$25:F$30)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN27" s="131">
         <f>SUMIF(D$25:D$30,X27,G$25:G$30)</f>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="AO27" s="131">
         <f>AM27-AN27</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP27" s="131">
         <f>AJ27*3+AK27*1</f>
@@ -14821,7 +14821,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="135">
         <v>0</v>
@@ -14859,7 +14859,7 @@
       </c>
       <c r="Q28" s="92">
         <f>IF($K28&lt;&gt;"",VLOOKUP($L28,$X$26:$AX$29,8,FALSE),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R28" s="92">
         <f>IF($K28&lt;&gt;"",VLOOKUP($L28,$X$26:$AX$29,9,FALSE),"")</f>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="S28" s="92">
         <f>IF($K28&lt;&gt;"",VLOOKUP($L28,$X$26:$AX$29,10,FALSE),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="93">
         <f>IF($K28&lt;&gt;"",VLOOKUP($L28,$X$26:$AX$29,11,FALSE),"")</f>
@@ -14910,11 +14910,11 @@
       </c>
       <c r="AF28" s="131">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG28" s="131">
         <f>IF(Y28&lt;1,-100,AO28+AW28)</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AH28" s="131">
         <f>AP28+AX28</f>
@@ -14974,11 +14974,11 @@
       </c>
       <c r="AV28" s="131">
         <f>SUMIF(I$25:I$30,X28,F$25:F$30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW28" s="131">
         <f>AU28-AV28</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AX28" s="131">
         <f>AR28*3+AS28*1</f>
@@ -15057,11 +15057,11 @@
       </c>
       <c r="R29" s="92">
         <f>IF($K29&lt;&gt;"",VLOOKUP($L29,$X$26:$AX$29,9,FALSE),"")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S29" s="92">
         <f>IF($K29&lt;&gt;"",VLOOKUP($L29,$X$26:$AX$29,10,FALSE),"")</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T29" s="93">
         <f>IF($K29&lt;&gt;"",VLOOKUP($L29,$X$26:$AX$29,11,FALSE),"")</f>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="AE29" s="131">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF29" s="131">
         <f t="shared" si="2"/>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="AG29" s="131">
         <f>IF(Y29&lt;1,-100,AO29+AW29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="131">
         <f>AP29+AX29</f>
@@ -15132,7 +15132,7 @@
       </c>
       <c r="AM29" s="131">
         <f>SUMIF(D$25:D$30,X29,F$25:F$30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN29" s="131">
         <f>SUMIF(D$25:D$30,X29,G$25:G$30)</f>
@@ -15140,7 +15140,7 @@
       </c>
       <c r="AO29" s="131">
         <f>AM29-AN29</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP29" s="131">
         <f>AJ29*3+AK29*1</f>
@@ -15251,11 +15251,11 @@
       </c>
       <c r="R30" s="92">
         <f>IF($K30&lt;&gt;"",VLOOKUP($L30,$X$26:$AX$29,9,FALSE),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S30" s="92">
         <f>IF($K30&lt;&gt;"",VLOOKUP($L30,$X$26:$AX$29,10,FALSE),"")</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="T30" s="93">
         <f>IF($K30&lt;&gt;"",VLOOKUP($L30,$X$26:$AX$29,11,FALSE),"")</f>
@@ -16373,6 +16373,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="44">
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="K17:K18"/>
@@ -16389,34 +16417,6 @@
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="S17:S18"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D14 D25:D30 D33:D38 D17:D22">
     <cfRule type="expression" dxfId="108" priority="34" stopIfTrue="1">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="H6" s="30" t="str">
         <f>'GROUPS E,F,G,H'!L27</f>
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I6" s="30"/>
     </row>
@@ -17300,8 +17300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17389,10 +17389,10 @@
       <c r="E8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="154"/>
+      <c r="G8" s="152"/>
       <c r="H8" s="41" t="s">
         <v>108</v>
       </c>
@@ -17476,34 +17476,34 @@
       <c r="I9" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="156" t="s">
+      <c r="K9" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="152" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="152" t="s">
+      <c r="L9" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="152" t="s">
+      <c r="P9" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="152" t="s">
+      <c r="Q9" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="152" t="s">
+      <c r="R9" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="152" t="s">
+      <c r="S9" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="152" t="s">
+      <c r="T9" s="155" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="63" t="s">
@@ -17629,19 +17629,19 @@
       <c r="I10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="157"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
       <c r="W10" s="61">
         <f>AY10+AZ10+BA10+BB10</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10" s="53" t="s">
         <v>26</v>
@@ -17760,7 +17760,7 @@
       </c>
       <c r="BA10" s="45">
         <f>SUMPRODUCT((AH$10:AH$13=AH10)*(AG$10:AG$13=AG10)*(AE$10:AE$13&gt;AE10))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="45">
         <f>SUMPRODUCT((AH$10:AH$13=AH10)*(AG$10:AG$13=AG10)*(AE$10:AE$13=AE10)*(Y$10:Y$13&gt;Y10))</f>
@@ -17781,7 +17781,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="23">
         <v>0</v>
@@ -17869,11 +17869,11 @@
       </c>
       <c r="AF11" s="74">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="74">
         <f>IF(Y11&lt;1,-100,AO11+AW11)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AH11" s="74">
         <f>AP11+AX11</f>
@@ -17933,11 +17933,11 @@
       </c>
       <c r="AV11" s="70">
         <f>SUMIF(I$9:I$14,X11,F$9:F$14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="70">
         <f>AU11-AV11</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AX11" s="70">
         <f>AR11*3+AS11*1</f>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="L12" s="91" t="str">
         <f>IF(K12&lt;&gt;"",VLOOKUP(K12,W$10:AX$13,2,FALSE),"")</f>
-        <v>Sweden</v>
+        <v>Poland</v>
       </c>
       <c r="M12" s="92">
         <f>IF($K12&lt;&gt;"",VLOOKUP($L12,$X$10:$AX$13,4,FALSE),"")</f>
@@ -18012,11 +18012,11 @@
       </c>
       <c r="Q12" s="92">
         <f>IF($K12&lt;&gt;"",VLOOKUP($L12,$X$10:$AX$13,8,FALSE),"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" s="92">
         <f>IF($K12&lt;&gt;"",VLOOKUP($L12,$X$10:$AX$13,9,FALSE),"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12" s="92">
         <f>IF($K12&lt;&gt;"",VLOOKUP($L12,$X$10:$AX$13,10,FALSE),"")</f>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="L13" s="91" t="str">
         <f>IF(K13&lt;&gt;"",VLOOKUP(K13,W$10:AX$13,2,FALSE),"")</f>
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="M13" s="92">
         <f>IF($K13&lt;&gt;"",VLOOKUP($L13,$X$10:$AX$13,4,FALSE),"")</f>
@@ -18210,11 +18210,11 @@
       </c>
       <c r="R13" s="92">
         <f>IF($K13&lt;&gt;"",VLOOKUP($L13,$X$10:$AX$13,9,FALSE),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" s="92">
         <f>IF($K13&lt;&gt;"",VLOOKUP($L13,$X$10:$AX$13,10,FALSE),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T13" s="93">
         <f>IF($K13&lt;&gt;"",VLOOKUP($L13,$X$10:$AX$13,11,FALSE),"")</f>
@@ -18222,7 +18222,7 @@
       </c>
       <c r="W13" s="61">
         <f>AY13+AZ13+BA13+BB13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13" s="53" t="s">
         <v>40</v>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="AE13" s="74">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="74">
         <f t="shared" si="0"/>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="AG13" s="74">
         <f>IF(Y13&lt;1,-100,AO13+AW13)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH13" s="74">
         <f>AP13+AX13</f>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="AM13" s="66">
         <f>SUMIF(D$9:D$14,X13,F$9:F$14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="66">
         <f>SUMIF(D$9:D$14,X13,G$9:G$14)</f>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="AO13" s="66">
         <f>AM13-AN13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="66">
         <f>AJ13*3+AK13*1</f>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="AZ13" s="45">
         <f>SUMPRODUCT((AH$10:AH$13=AH13)*(AG$10:AG$13&gt;AG13))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="45">
         <f>SUMPRODUCT((AH$10:AH$13=AH13)*(AG$10:AG$13=AG13)*(AE$10:AE$13&gt;AE13))</f>
@@ -18404,11 +18404,11 @@
       </c>
       <c r="R14" s="92">
         <f>IF($K14&lt;&gt;"",VLOOKUP($L14,$X$10:$AX$13,9,FALSE),"")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" s="92">
         <f>IF($K14&lt;&gt;"",VLOOKUP($L14,$X$10:$AX$13,10,FALSE),"")</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T14" s="93">
         <f>IF($K14&lt;&gt;"",VLOOKUP($L14,$X$10:$AX$13,11,FALSE),"")</f>
@@ -18449,10 +18449,10 @@
       <c r="E16" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="154" t="s">
+      <c r="F16" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="154"/>
+      <c r="G16" s="152"/>
       <c r="H16" s="41" t="s">
         <v>108</v>
       </c>
@@ -18536,34 +18536,34 @@
       <c r="I17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="156" t="s">
+      <c r="K17" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="152" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="152" t="s">
+      <c r="L17" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="152" t="s">
+      <c r="P17" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="152" t="s">
+      <c r="Q17" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="152" t="s">
+      <c r="R17" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="152" t="s">
+      <c r="S17" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="T17" s="152" t="s">
+      <c r="T17" s="155" t="s">
         <v>20</v>
       </c>
       <c r="W17" s="63" t="s">
@@ -18689,16 +18689,16 @@
       <c r="I18" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="157"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
       <c r="W18" s="61">
         <f>AY18+AZ18+BA18+BB18</f>
         <v>1</v>
@@ -19568,34 +19568,34 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="K25" s="161" t="s">
+      <c r="K25" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="158" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="158" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="158" t="s">
+      <c r="L25" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="158" t="s">
+      <c r="P25" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="158" t="s">
+      <c r="Q25" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="R25" s="158" t="s">
+      <c r="R25" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="158" t="s">
+      <c r="S25" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="158" t="s">
+      <c r="T25" s="157" t="s">
         <v>20</v>
       </c>
       <c r="W25" s="63" t="s">
@@ -19704,16 +19704,16 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
       <c r="W26" s="61">
         <f t="shared" ref="W26:W31" si="2">AY26+AZ26+BA26+BB26</f>
         <v>4</v>
@@ -19857,7 +19857,7 @@
       </c>
       <c r="L27" s="91" t="str">
         <f>IF(K27&lt;&gt;"",VLOOKUP(K27,W$26:AX$31,2,FALSE),"")</f>
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="M27" s="92">
         <f t="shared" ref="M27:M32" si="15">IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$31,4,FALSE),"")</f>
@@ -19881,11 +19881,11 @@
       </c>
       <c r="R27" s="92">
         <f t="shared" ref="R27:R32" si="20">IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$31,9,FALSE),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" s="92">
         <f t="shared" ref="S27:S32" si="21">IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$31,10,FALSE),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T27" s="93">
         <f t="shared" ref="T27:T32" si="22">IF($K27&lt;&gt;"",VLOOKUP($L27,$X$26:$AX$31,11,FALSE),"")</f>
@@ -19897,11 +19897,11 @@
       </c>
       <c r="X27" s="53" t="str">
         <f>IF($K13&lt;&gt;"",VLOOKUP($L13,$X$10:$AX$13,1,FALSE),"")</f>
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="Y27" s="54">
         <f>IF(X27&lt;&gt;"",VLOOKUP(X27,'Initial Setup'!D$3:'Initial Setup'!F$26,3,FALSE),"")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z27" s="54" t="str">
         <f>IF(X27&lt;&gt;"",VLOOKUP(X27,'Initial Setup'!D$3:'Initial Setup'!F$26,2,FALSE),"")</f>
@@ -19929,11 +19929,11 @@
       </c>
       <c r="AF27" s="74">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG27" s="74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH27" s="74">
         <f t="shared" si="6"/>
@@ -19941,7 +19941,7 @@
       </c>
       <c r="AI27" s="66">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ27" s="66">
         <f>SUMPRODUCT((D$9:D$14=X27)*(F$9:F$14&gt;G$9:G$14))</f>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="AK27" s="66">
         <f>SUMPRODUCT((D$9:D$14=X27)*(F$9:F$14=G$9:G$14)*(F$9:F$14&lt;&gt;""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="66">
         <f>SUMPRODUCT((D$9:D$14=X27)*(F$9:F$14&lt;G$9:G$14))</f>
@@ -19957,11 +19957,11 @@
       </c>
       <c r="AM27" s="66">
         <f>SUMIF(D$9:D$14,X27,F$9:F$14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN27" s="66">
         <f>SUMIF(D$9:D$14,X27,G$9:G$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27" s="66">
         <f t="shared" si="8"/>
@@ -19969,11 +19969,11 @@
       </c>
       <c r="AP27" s="66">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ27" s="70">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR27" s="70">
         <f>SUMPRODUCT((I$9:I$14=X27)*(F$9:F$14&lt;G$9:G$14))</f>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="AS27" s="70">
         <f>SUMPRODUCT((I$9:I$14=X27)*(F$9:F$14=G$9:G$14)*(G$9:G$14&lt;&gt;""))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="70">
         <f>SUMPRODUCT((I$9:I$14=X27)*(F$9:F$14&gt;G$9:G$14))</f>
@@ -19989,7 +19989,7 @@
       </c>
       <c r="AU27" s="70">
         <f>SUMIF(I$9:I$14,X27,G$9:G$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="70">
         <f>SUMIF(I$9:I$14,X27,F$9:F$14)</f>
@@ -19997,11 +19997,11 @@
       </c>
       <c r="AW27" s="70">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AX27" s="70">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="45">
         <f t="shared" ref="AY27:AY31" si="23">RANK(AH27,AH$26:AH$31)</f>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="AZ29" s="45">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="45">
         <f t="shared" si="24"/>
@@ -20373,7 +20373,7 @@
       </c>
       <c r="BB29" s="45">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" s="51"/>
       <c r="BD29" s="51"/>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="AF30" s="74">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG30" s="74">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AH30" s="74">
         <f t="shared" si="6"/>
@@ -20527,11 +20527,11 @@
       </c>
       <c r="AV30" s="70">
         <f>SUMIF('Groups A,B,C,D'!I$25:'Groups A,B,C,D'!I$30,X30,'Groups A,B,C,D'!F$25:'Groups A,B,C,D'!F$30)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW30" s="70">
         <f t="shared" si="11"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AX30" s="70">
         <f t="shared" si="12"/>
@@ -20759,11 +20759,11 @@
       </c>
       <c r="R32" s="92">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S32" s="92">
         <f t="shared" si="21"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T32" s="93">
         <f t="shared" si="22"/>
@@ -20809,8 +20809,8 @@
       <c r="B35" s="34"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="K35" s="42"/>
@@ -20871,34 +20871,34 @@
       <c r="G36" s="23"/>
       <c r="H36" s="47"/>
       <c r="I36" s="48"/>
-      <c r="K36" s="156" t="s">
+      <c r="K36" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="N36" s="152" t="s">
-        <v>2</v>
-      </c>
-      <c r="O36" s="152" t="s">
+      <c r="L36" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="P36" s="152" t="s">
+      <c r="P36" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q36" s="152" t="s">
+      <c r="Q36" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="152" t="s">
+      <c r="R36" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="S36" s="152" t="s">
+      <c r="S36" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="T36" s="152" t="s">
+      <c r="T36" s="155" t="s">
         <v>20</v>
       </c>
       <c r="W36" s="63" t="s">
@@ -21007,16 +21007,16 @@
       <c r="G37" s="23"/>
       <c r="H37" s="47"/>
       <c r="I37" s="48"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="156"/>
       <c r="W37" s="61">
         <f>AY37+AZ37+BA37+BB37</f>
         <v>1</v>
@@ -21708,26 +21708,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="O36:O37"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
@@ -21744,13 +21731,26 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="O17:O18"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D17:D22 D9:D14 D36:D41">
@@ -22124,10 +22124,10 @@
       <c r="E9" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="154" t="s">
+      <c r="F9" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="41" t="s">
         <v>108</v>
       </c>
@@ -22723,10 +22723,10 @@
       <c r="AT12" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="AU12" s="154" t="s">
+      <c r="AU12" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="AV12" s="154"/>
+      <c r="AV12" s="152"/>
       <c r="AW12" s="41" t="s">
         <v>108</v>
       </c>
@@ -22742,10 +22742,10 @@
       <c r="BB12" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="BC12" s="154" t="s">
+      <c r="BC12" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="BD12" s="154"/>
+      <c r="BD12" s="152"/>
       <c r="BE12" s="41" t="s">
         <v>108</v>
       </c>
@@ -22773,11 +22773,11 @@
       </c>
       <c r="H13" s="99">
         <f>IF(I13&lt;&gt;"",VLOOKUP(I13,'Initial Setup'!D$3:F$26, 3,FALSE),"")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="98" t="str">
         <f>IF(D13&gt;"",VLOOKUP((VLOOKUP('3rdPlace'!G$4,'3rdPlace'!_3rd_Placed_Groups,2)),Actual_Groups,2,FALSE),"")</f>
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="K13" s="94">
         <v>49</v>
@@ -22978,11 +22978,11 @@
       </c>
       <c r="H14" s="99">
         <f>IF(I14&lt;&gt;"",VLOOKUP(I14,'Initial Setup'!D$3:F$26, 3,FALSE),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="85" t="str">
         <f>IF('GROUPS E,F,G,H'!M12&gt;0,'GROUPS E,F,G,H'!L12,"")</f>
-        <v>Sweden</v>
+        <v>Poland</v>
       </c>
       <c r="K14" s="94">
         <v>50</v>
@@ -23727,10 +23727,10 @@
       <c r="E21" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="154" t="s">
+      <c r="F21" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="154"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="41" t="s">
         <v>108</v>
       </c>
@@ -23889,11 +23889,11 @@
       </c>
       <c r="H22" s="99">
         <f>IF(I22&lt;&gt;"",VLOOKUP(I22,'Initial Setup'!D$3:F$26, 3,FALSE),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="87" t="str">
         <f>IF(AND(F14&gt;G14,F14&lt;&gt;""),D14,I14)</f>
-        <v>Sweden</v>
+        <v>Poland</v>
       </c>
       <c r="L22" s="39"/>
       <c r="M22" s="51"/>
@@ -30767,7 +30767,7 @@
       </c>
       <c r="H7" s="11">
         <f>IF($B7&lt;&gt;"",VLOOKUP($C7,Setting!$C$4:$AC$27,COLUMN(),FALSE),"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="11">
         <f>IF($B7&lt;&gt;"",VLOOKUP($C7,Setting!$C$4:$AC$27,COLUMN(),FALSE),"")</f>
@@ -31653,7 +31653,7 @@
       </c>
       <c r="I28" s="11">
         <f>IF($B28&lt;&gt;"",VLOOKUP($C28,Setting!$C$4:$AC$27,COLUMN(),FALSE),"")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" s="11">
         <f>IF($B28&lt;&gt;"",VLOOKUP($C28,Setting!$C$4:$AC$27,COLUMN(),FALSE),"")</f>
@@ -33198,7 +33198,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="R14" s="7">
         <f>SUMIF('GROUPS E,F,G,H'!D$9:D$14,Setting!C14,'GROUPS E,F,G,H'!F$9:F$14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14" s="7">
         <f>SUMIF('GROUPS E,F,G,H'!D$9:D$14,Setting!C14,'GROUPS E,F,G,H'!G$9:G$14)</f>
@@ -33238,7 +33238,7 @@
       </c>
       <c r="T14" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" s="7">
         <f t="shared" si="9"/>
@@ -33416,11 +33416,11 @@
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
@@ -34762,7 +34762,7 @@
       </c>
       <c r="K26" s="7">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="12"/>
@@ -34826,11 +34826,11 @@
       </c>
       <c r="AA26" s="7">
         <f>SUMIF('GROUPS E,F,G,H'!I$9:I$14,Setting!C26,'GROUPS E,F,G,H'!F$9:F$14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="7">
         <f>Z26-AA26</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AC26" s="7">
         <f>W26*3+X26*1</f>
@@ -35781,7 +35781,7 @@
       </c>
       <c r="B17" s="59">
         <f>'Groups A,B,C,D'!F27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="59">
         <f>'Groups A,B,C,D'!G27</f>
@@ -35839,7 +35839,7 @@
       </c>
       <c r="B19" s="59">
         <f>'Groups A,B,C,D'!F28</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="59">
         <f>'Groups A,B,C,D'!G28</f>
@@ -35868,7 +35868,7 @@
       </c>
       <c r="B20" s="28">
         <f>'GROUPS E,F,G,H'!F11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="59">
         <f>'GROUPS E,F,G,H'!G11</f>
@@ -36489,7 +36489,7 @@
       </c>
       <c r="E41" s="28" t="str">
         <f>'KnockOut Stage'!I13</f>
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="F41" s="27" t="str">
         <f t="shared" si="1"/>
@@ -36518,7 +36518,7 @@
       </c>
       <c r="E42" s="28" t="str">
         <f>'KnockOut Stage'!I14</f>
-        <v>Sweden</v>
+        <v>Poland</v>
       </c>
       <c r="F42" s="27" t="str">
         <f t="shared" si="1"/>
@@ -36634,7 +36634,7 @@
       </c>
       <c r="E46" s="28" t="str">
         <f>'KnockOut Stage'!I22</f>
-        <v>Sweden</v>
+        <v>Poland</v>
       </c>
       <c r="F46" s="27" t="str">
         <f t="shared" si="1"/>
